--- a/Dataset/19/수리남_학습 (19)/수리남5.xlsx
+++ b/Dataset/19/수리남_학습 (19)/수리남5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\OneDrive - 부산광역시교육청\문서\_3학년 1학기\AI 실무 프로젝트\수리남_학습 (19)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\19\수리남_학습 (19)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29DA8F-F020-4174-87C7-0AE3FBD7AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD0C66-D49A-43C9-AF42-D4E82A7CC8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5543,7 +5543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5848,19 +5848,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D936"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="D937" sqref="D937"/>
+      <selection activeCell="W733" sqref="W733"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="43.08203125" customWidth="1"/>
+    <col min="2" max="2" width="43.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -8044,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -8072,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>359</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>365</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>366</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>368</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>370</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>372</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>374</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>378</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>380</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>382</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>384</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>386</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>390</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>392</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>394</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>396</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>402</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>404</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>406</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>412</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>414</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>416</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>418</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>420</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>422</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>424</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>426</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>428</v>
       </c>
@@ -8898,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>430</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>434</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>436</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>438</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>440</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>442</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>447</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>449</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>451</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>453</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>455</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>457</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>459</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>461</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>468</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>470</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>471</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>473</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>475</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>477</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>479</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>481</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>483</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>485</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>487</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>489</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>491</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>493</v>
       </c>
@@ -9388,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>495</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>497</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>499</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>501</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>503</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>505</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>507</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>509</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>511</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>513</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>515</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>517</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>519</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>521</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>523</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>525</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>527</v>
       </c>
@@ -9626,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>529</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>531</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>533</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>535</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>537</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>539</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>541</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>543</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>545</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>547</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>549</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>551</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>553</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>557</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>559</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>561</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>563</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>565</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>567</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>569</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>571</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>573</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>577</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>578</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>580</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>582</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>584</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>586</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>588</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>590</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>592</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>593</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>595</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>597</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>599</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>601</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>603</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>605</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>607</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>609</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>611</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>613</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>615</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>617</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>619</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>621</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>623</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>625</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>627</v>
       </c>
@@ -10340,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>629</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>631</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>633</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>635</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>637</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>639</v>
       </c>
@@ -10438,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>641</v>
       </c>
@@ -10452,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>643</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>645</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>647</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>649</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>651</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>653</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>655</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>657</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>659</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>661</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>663</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>665</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>667</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>668</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>669</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>671</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>673</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>675</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>677</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>679</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>681</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>683</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>685</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>687</v>
       </c>
@@ -10788,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>689</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>691</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>693</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>695</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>697</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>699</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>700</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>702</v>
       </c>
@@ -10900,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>704</v>
       </c>
@@ -10914,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>706</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>708</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>710</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>712</v>
       </c>
@@ -10970,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>714</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>716</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>718</v>
       </c>
@@ -11012,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>719</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>721</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>723</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>725</v>
       </c>
@@ -11068,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>727</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>729</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>731</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>735</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>737</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>739</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>741</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>743</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>745</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>747</v>
       </c>
@@ -11222,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>749</v>
       </c>
@@ -11236,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>751</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>753</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>755</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>757</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>759</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>761</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>763</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>765</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>767</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>769</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>771</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>772</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>774</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>776</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>778</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>780</v>
       </c>
@@ -11460,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>782</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>784</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>785</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>787</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>789</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>791</v>
       </c>
@@ -11544,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>793</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>794</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>796</v>
       </c>
@@ -11586,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>798</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>800</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>802</v>
       </c>
@@ -11628,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>804</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>806</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>808</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>810</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>812</v>
       </c>
@@ -11698,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>813</v>
       </c>
@@ -11712,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>814</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>816</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>818</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>820</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>822</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>824</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>826</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>828</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>830</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>832</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>834</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>836</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>838</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>840</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>842</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>844</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>846</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>848</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>850</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>852</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>854</v>
       </c>
@@ -12006,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>855</v>
       </c>
@@ -12020,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>857</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>859</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>861</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>863</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>865</v>
       </c>
@@ -12090,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>866</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>867</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>869</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>871</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>872</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>874</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>876</v>
       </c>
@@ -12188,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>878</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>880</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>882</v>
       </c>
@@ -12230,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>884</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>886</v>
       </c>
@@ -12258,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>888</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>890</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>891</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>893</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>895</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>897</v>
       </c>
@@ -12342,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>899</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>901</v>
       </c>
@@ -12370,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>903</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>905</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>907</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>909</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>911</v>
       </c>
@@ -12440,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>913</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>915</v>
       </c>
@@ -12468,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>917</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>919</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>921</v>
       </c>
@@ -12510,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>923</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>925</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>927</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>929</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>931</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>933</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>935</v>
       </c>
@@ -12608,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>937</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>939</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>941</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>943</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>945</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>947</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>949</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>951</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>953</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>955</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>957</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>959</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>961</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>963</v>
       </c>
@@ -12804,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>965</v>
       </c>
@@ -12818,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>967</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>969</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>971</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>973</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>975</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>976</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>978</v>
       </c>
@@ -12916,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>980</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>982</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>984</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>986</v>
       </c>
@@ -12972,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>988</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>990</v>
       </c>
@@ -13000,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>992</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>994</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>996</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>998</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1000</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1002</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1004</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1006</v>
       </c>
@@ -13112,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1008</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1010</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1012</v>
       </c>
@@ -13154,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1014</v>
       </c>
@@ -13168,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1016</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1018</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1020</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1021</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1023</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1025</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1027</v>
       </c>
@@ -13266,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1029</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1031</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1033</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1035</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1037</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1039</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1041</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1043</v>
       </c>
@@ -13378,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1045</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1047</v>
       </c>
@@ -13406,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1049</v>
       </c>
@@ -13420,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1050</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1052</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1054</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1056</v>
       </c>
@@ -13476,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1058</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1060</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1062</v>
       </c>
@@ -13518,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1064</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1066</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1068</v>
       </c>
@@ -13560,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1070</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1072</v>
       </c>
@@ -13588,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1074</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1076</v>
       </c>
@@ -13616,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1078</v>
       </c>
@@ -13630,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1080</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1082</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1084</v>
       </c>
@@ -13672,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1086</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1087</v>
       </c>
@@ -13700,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1089</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1091</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1093</v>
       </c>
@@ -13742,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1095</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1097</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1099</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1100</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1102</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1104</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1106</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1108</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1110</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1112</v>
       </c>
@@ -13882,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1114</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1116</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1118</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1120</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1122</v>
       </c>
@@ -13952,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1124</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1126</v>
       </c>
@@ -13980,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1128</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1130</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1132</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1134</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1135</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1137</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1139</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1141</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1143</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1145</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1147</v>
       </c>
@@ -14134,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1149</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1151</v>
       </c>
@@ -14162,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1153</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1154</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1156</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1158</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1160</v>
       </c>
@@ -14232,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1162</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1164</v>
       </c>
@@ -14260,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1166</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1168</v>
       </c>
@@ -14288,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1170</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1172</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1174</v>
       </c>
@@ -14330,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1176</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1178</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1180</v>
       </c>
@@ -14372,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1182</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1184</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1185</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1187</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1189</v>
       </c>
@@ -14442,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1191</v>
       </c>
@@ -14456,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1193</v>
       </c>
@@ -14470,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1195</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1197</v>
       </c>
@@ -14498,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1199</v>
       </c>
@@ -14512,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1201</v>
       </c>
@@ -14526,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1203</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1204</v>
       </c>
@@ -14554,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1206</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1208</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1209</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1211</v>
       </c>
@@ -14610,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1213</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1215</v>
       </c>
@@ -14638,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1217</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1219</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1221</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1223</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1225</v>
       </c>
@@ -14708,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1227</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1229</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1231</v>
       </c>
@@ -14750,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1233</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1235</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1237</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1239</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1241</v>
       </c>
@@ -14820,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1243</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1245</v>
       </c>
@@ -14848,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1247</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1249</v>
       </c>
@@ -14876,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1251</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1253</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1255</v>
       </c>
@@ -14918,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1257</v>
       </c>
@@ -14932,7 +14931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1259</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1261</v>
       </c>
@@ -14960,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1263</v>
       </c>
@@ -14974,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1265</v>
       </c>
@@ -14988,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1267</v>
       </c>
@@ -15002,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1269</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1271</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1273</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1275</v>
       </c>
@@ -15058,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1277</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1279</v>
       </c>
@@ -15086,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1281</v>
       </c>
@@ -15100,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1282</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1284</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1286</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1288</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1290</v>
       </c>
@@ -15170,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1291</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1293</v>
       </c>
@@ -15198,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1295</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1297</v>
       </c>
@@ -15226,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1299</v>
       </c>
@@ -15240,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1301</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1303</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1305</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1307</v>
       </c>
@@ -15296,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1309</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1311</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1312</v>
       </c>
@@ -15338,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1314</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1316</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1318</v>
       </c>
@@ -15380,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1320</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1322</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1324</v>
       </c>
@@ -15422,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1326</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1328</v>
       </c>
@@ -15450,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1330</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1332</v>
       </c>
@@ -15478,7 +15477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1334</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1336</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1338</v>
       </c>
@@ -15520,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1340</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1342</v>
       </c>
@@ -15548,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1344</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1346</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1348</v>
       </c>
@@ -15590,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1350</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1352</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1353</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1354</v>
       </c>
@@ -15646,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1356</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1358</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1360</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1362</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1364</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1366</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1368</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1370</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1372</v>
       </c>
@@ -15772,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1374</v>
       </c>
@@ -15786,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1376</v>
       </c>
@@ -15800,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1378</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1380</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1382</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1383</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1385</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1387</v>
       </c>
@@ -15884,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1389</v>
       </c>
@@ -15898,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1391</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1393</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1395</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1397</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1399</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1401</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1403</v>
       </c>
@@ -15996,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1405</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1407</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1409</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1411</v>
       </c>
@@ -16052,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1413</v>
       </c>
@@ -16066,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1415</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1417</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1419</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1421</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1423</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1425</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1427</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1429</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1431</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1433</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1435</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1437</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1439</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1441</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1442</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1444</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1446</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1448</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1450</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1452</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1454</v>
       </c>
@@ -16360,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1456</v>
       </c>
@@ -16374,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1458</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1460</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1461</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1463</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1465</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1467</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1469</v>
       </c>
@@ -16472,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1471</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1473</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1475</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1477</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1479</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1481</v>
       </c>
@@ -16556,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1483</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1485</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1487</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1489</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1491</v>
       </c>
@@ -16626,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1493</v>
       </c>
@@ -16640,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1495</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1497</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1499</v>
       </c>
@@ -16682,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1501</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1503</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1505</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1507</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1509</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1511</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1513</v>
       </c>
@@ -16780,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1515</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1517</v>
       </c>
@@ -16808,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1519</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1520</v>
       </c>
@@ -16836,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1522</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1524</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1526</v>
       </c>
@@ -16878,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1528</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1530</v>
       </c>
@@ -16906,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1532</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1533</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1535</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1537</v>
       </c>
@@ -16962,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1539</v>
       </c>
@@ -16976,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1541</v>
       </c>
@@ -16990,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1543</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1545</v>
       </c>
@@ -17018,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1547</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1549</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1551</v>
       </c>
@@ -17060,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1553</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1555</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1556</v>
       </c>
@@ -17102,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1558</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1560</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1561</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1563</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1564</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1566</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1568</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1570</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1572</v>
       </c>
@@ -17228,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1574</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1576</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1578</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1580</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1582</v>
       </c>
@@ -17298,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1584</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1586</v>
       </c>
@@ -17326,7 +17325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1587</v>
       </c>
@@ -17340,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1589</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1591</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1593</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1595</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1597</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>1599</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>1601</v>
       </c>
@@ -17438,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>1603</v>
       </c>
@@ -17452,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>1605</v>
       </c>
@@ -17466,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>1607</v>
       </c>
@@ -17480,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>1609</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>1611</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>1613</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>1615</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>1616</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>1618</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>1619</v>
       </c>
@@ -17578,7 +17577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>1621</v>
       </c>
@@ -17592,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>1623</v>
       </c>
@@ -17606,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>1625</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>1627</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>1629</v>
       </c>
@@ -17648,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>1631</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>1633</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>1635</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>1637</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>1639</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>1641</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>1643</v>
       </c>
@@ -17746,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>1645</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>1647</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>1649</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>1651</v>
       </c>
@@ -17802,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>1653</v>
       </c>
@@ -17816,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>1655</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>1657</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>1659</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>1661</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>1663</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>1665</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>1667</v>
       </c>
@@ -17914,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>1669</v>
       </c>
@@ -17928,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>1671</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>1673</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>1675</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>1677</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>1678</v>
       </c>
@@ -17998,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>1680</v>
       </c>
@@ -18012,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>1682</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>1684</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>1686</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>1688</v>
       </c>
@@ -18068,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>1690</v>
       </c>
@@ -18082,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>1692</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>1694</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>1695</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>1697</v>
       </c>
@@ -18138,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>1699</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>1701</v>
       </c>
@@ -18166,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>1703</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>1705</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>1707</v>
       </c>
@@ -18208,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>1709</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>1711</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>1712</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>1713</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>1714</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>1715</v>
       </c>
@@ -18292,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>1717</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>1719</v>
       </c>
@@ -18320,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>1721</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>1723</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>1725</v>
       </c>
@@ -18362,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>1727</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>1729</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" t="s">
         <v>1731</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" t="s">
         <v>1733</v>
       </c>
@@ -18418,7 +18417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" t="s">
         <v>1735</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" t="s">
         <v>1737</v>
       </c>
@@ -18446,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" t="s">
         <v>1739</v>
       </c>
@@ -18460,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" t="s">
         <v>1741</v>
       </c>
@@ -18474,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" t="s">
         <v>1743</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" t="s">
         <v>1745</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" t="s">
         <v>1747</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" t="s">
         <v>1749</v>
       </c>
@@ -18530,7 +18529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" t="s">
         <v>1751</v>
       </c>
@@ -18544,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" t="s">
         <v>1753</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" t="s">
         <v>1755</v>
       </c>
@@ -18572,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" t="s">
         <v>1757</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" t="s">
         <v>1759</v>
       </c>
@@ -18600,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" t="s">
         <v>1761</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" t="s">
         <v>1763</v>
       </c>
@@ -18628,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" t="s">
         <v>1765</v>
       </c>
@@ -18642,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" t="s">
         <v>1767</v>
       </c>
@@ -18656,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" t="s">
         <v>1769</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" t="s">
         <v>1771</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" t="s">
         <v>1773</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" t="s">
         <v>1775</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" t="s">
         <v>1777</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" t="s">
         <v>1779</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" t="s">
         <v>1781</v>
       </c>
@@ -18754,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" t="s">
         <v>1783</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" t="s">
         <v>1785</v>
       </c>
@@ -18782,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" t="s">
         <v>1787</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" t="s">
         <v>1789</v>
       </c>
@@ -18810,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" t="s">
         <v>1791</v>
       </c>
@@ -18824,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" t="s">
         <v>1792</v>
       </c>
@@ -18838,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" t="s">
         <v>1794</v>
       </c>
@@ -18852,7 +18851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" t="s">
         <v>1796</v>
       </c>
@@ -18866,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" t="s">
         <v>1798</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" t="s">
         <v>1800</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" t="s">
         <v>1802</v>
       </c>
@@ -18908,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" t="s">
         <v>1804</v>
       </c>
@@ -18922,7 +18921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" t="s">
         <v>1806</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" t="s">
         <v>1808</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" t="s">
         <v>1810</v>
       </c>
@@ -18965,13 +18964,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C936" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.5"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C936" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
